--- a/medicine/Enfance/Moussa_Konaté_(écrivain)/Moussa_Konaté_(écrivain).xlsx
+++ b/medicine/Enfance/Moussa_Konaté_(écrivain)/Moussa_Konaté_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+          <t>Moussa_Konaté_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moussa Konaté, né le 8 juin 1951 à Kita, au Mali, et mort le 30 novembre 2013[1] à Limoges[2], est un écrivain malien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moussa Konaté, né le 8 juin 1951 à Kita, au Mali, et mort le 30 novembre 2013 à Limoges, est un écrivain malien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+          <t>Moussa_Konaté_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en lettres de l’École normale supérieure de Bamako, il enseigna plusieurs années avant de se consacrer à l’écriture. Il est connu pour la publication de plusieurs romans policiers qui relatent les enquêtes du commissaire Habib.
 Fondateur des éditions du Figuier, il est également le directeur de l’association « Étonnants voyageurs Afrique » et, en collaboration avec Michel Le Bris, a dirigé le Festival Étonnants voyageurs au Mali.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+          <t>Moussa_Konaté_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,83 +560,376 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Commissaire Habib. Enquête sur les rives du fleuve Niger
-Le Commissaire Habib, suivi de L'Honneur des Keïta, Bamako (Mali), Édition Le Figuier, 1998
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Commissaire Habib. Enquête sur les rives du fleuve Niger</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Commissaire Habib, suivi de L'Honneur des Keïta, Bamako (Mali), Édition Le Figuier, 1998
 L’Assassin du Banconi, suivi de L’Honneur des Keïta, Paris, Gallimard, coll. « Série noire » no 2650, 2002  (ISBN 2070423492)
 L'Empreinte du renard, Paris, Éditions Fayard, 2006  (ISBN 978-2213626826) ; réédition, Paris, Éditions Points, coll. « Policier » no P1692, 2007  (ISBN 978-2-7578-0305-9)
 La Malédiction du lamantin, Paris, Fayard, 2009  (ISBN 978-2213635149) ; réédition, Paris, Éditions Points, coll. « Policier » no P2321, 2010  (ISBN 978-2-7578-1654-7)
 Meurtre à Tombouctou, Paris, Éditions Métailié, 2014  (ISBN 978-2-86424-953-5) ; réédition, Paris, Éditions Points, coll. « Policier » no P4088, 2015  (ISBN 978-2-7578-5190-6)
-L'Affaire des coupeurs de têtes, Paris, Éditions Métailié, 2015  (ISBN 979-1022601597) ; réédition, Paris, Éditions Points, coll. « Policier » no P4617, 2017  (ISBN 978-2-7578-6380-0)
-Autres romans
-Les Saisons, éditions Jamana, 1985
+L'Affaire des coupeurs de têtes, Paris, Éditions Métailié, 2015  (ISBN 979-1022601597) ; réédition, Paris, Éditions Points, coll. « Policier » no P4617, 2017  (ISBN 978-2-7578-6380-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Saisons, éditions Jamana, 1985
 Sitan, la petite imprudente, Bamako (Mali), Éditions Le Figuier, 1997
 Barou et sa méchante marâtre, Bamako (Mali), Éditions Le Figuier, 1997
 L’Hyène et le Malin Fafa, Bamako (Mali), Éditions Le Figuier, 1997
-Les Trois Gourmands, Bamako (Mali), Éditions Le Figuier, 1997
-Recueils de nouvelles
-Le Prix de l'âme, Paris, Présence Africaine, 1981  (ISBN 9782708703902) ; réédition, Paris, Présence Africaine, 2003
+Les Trois Gourmands, Bamako (Mali), Éditions Le Figuier, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Prix de l'âme, Paris, Présence Africaine, 1981  (ISBN 9782708703902) ; réédition, Paris, Présence Africaine, 2003
 Une aube incertaine, Paris, Présence Africaine, 1985 ; réédition, Paris, Présence Africaine, coll. « Écrits », 2003  (ISBN 9782708704596)
 Fils du chaos, Paris, L’Harmattan, 1986 ; réédition, Paris, L'Harmattan, 2000  (ISBN 9782858027675)
 Goorgi, Bamako (Mali), Éditions Le Figuier, 1998
-Les Orphelins d'Allah, Éditions Le Bruit des autres, 2009  (ISBN 978-2356520326)
-Ouvrages de littérature d'enfance et de jeunesse
-Série Kanuden
-Kanuden contre Cœur ténébreux, Malakoff, Édicef, 2013
+Les Orphelins d'Allah, Éditions Le Bruit des autres, 2009  (ISBN 978-2356520326)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Kanuden</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kanuden contre Cœur ténébreux, Malakoff, Édicef, 2013
 Kanuden à l'assaut des tyrans, Malakoff, Édicef, 2014
-Kanuden sous un soleil nouveau, Malakoff, Édicef, 2015
-Autres ouvrages de littérature d'enfance et de jeunesse
-La Potière, (illustrations Aly Zorome), Bamako (Mali), Éditions Le Figuier, 1985
+Kanuden sous un soleil nouveau, Malakoff, Édicef, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Potière, (illustrations Aly Zorome), Bamako (Mali), Éditions Le Figuier, 1985
 La Fileuse, (illustrations Aly Zorome), Bamako (Mali), Éditions Le Figuier, 1985
 La Teinturière, (illustrations Aly Zorome), Bamako (Mali), Éditions Le Figuier, 1985
 Le Tisserand, (illustrations Aly Zorome), Bamako (Mali), Éditions Le Figuier, 1985
-La Savonnière, Bamako (Mali), Éditions Le Figuier, 1985
-Essais sociaux et politiques
-Mali–Ils ont assassiné l’espoir, essai, Paris, L’Harmattan, 1985
+La Savonnière, Bamako (Mali), Éditions Le Figuier, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Essais sociaux et politiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mali–Ils ont assassiné l’espoir, essai, Paris, L’Harmattan, 1985
 Chronique d’une journée de répression, Paris, L’Harmattan, 1988
 Mali, ils ont assassiné l'espoir, Paris, L'Harmattan, 2000  (ISBN 9782738406927)
 Le Casier judiciaire, nouvelle publiée dans le recueil La voiture est dans la piroge, Éditions Le Bruit des Autres
-L'Afrique noire est-elle maudite ?, Paris, Fayard, 2010  (ISBN 9782213651521)
-Pièces de théâtre
-Khasso, Paris, Éditions théâtrales, coll. « Passages francophones », 2005[3]
-Un appel de nuit, (1995)[4],Lansman Éditeur, Carnières, Belgique, 1995; Rééditions 2004, 2015.
-Un monde immobile, (1994)[5],Édition La Sahélienne, Mali, 1994
-L’Or du diable, (1985)[6],L’Harmattan, Paris, 1985 (suivi de Le cercle au féminin).
-Le Cercle au féminin, (1985)[7], L’Harmattan, Paris, 1985 (avec L'Or du diable).
-Le Dernier Pas[8] Non publié.
-Autres publications
-Un monde immobile Éditions La Sahélienne, 1994
-L'Or du diable, suivi de Le Cercle au féminin, Paris, L'Harmattan, 2004  (ISBN 9782858024490)
-Films
-Un Mali d'écrivains  2001. Films du Horla (Les)/France 3 Production Lille.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+L'Afrique noire est-elle maudite ?, Paris, Fayard, 2010  (ISBN 9782213651521)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Khasso, Paris, Éditions théâtrales, coll. « Passages francophones », 2005
+Un appel de nuit, (1995),Lansman Éditeur, Carnières, Belgique, 1995; Rééditions 2004, 2015.
+Un monde immobile, (1994),Édition La Sahélienne, Mali, 1994
+L’Or du diable, (1985),L’Harmattan, Paris, 1985 (suivi de Le cercle au féminin).
+Le Cercle au féminin, (1985), L’Harmattan, Paris, 1985 (avec L'Or du diable).
+Le Dernier Pas Non publié.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Un monde immobile Éditions La Sahélienne, 1994
+L'Or du diable, suivi de Le Cercle au féminin, Paris, L'Harmattan, 2004  (ISBN 9782858024490)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Un Mali d'écrivains  2001. Films du Horla (Les)/France 3 Production Lille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Moussa_Konaté_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moussa_Konat%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>2011 : Prix Hervé Deluen de l'Académie française</t>
         </is>
